--- a/Optimisation/dataset/freight_costs.xlsx
+++ b/Optimisation/dataset/freight_costs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\62- Other Projects\24- Articles\13- Supply Chain Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_15EE4FF78E3075793832E58993F13C282D13FC69" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2DB35180-A9C0-4FAF-A352-CB8BEE7C221A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="11490" windowHeight="6430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>USA</t>
   </si>
@@ -37,12 +38,27 @@
   </si>
   <si>
     <t>Freight Costs ($/Container)</t>
+  </si>
+  <si>
+    <t>DMZ1</t>
+  </si>
+  <si>
+    <t>DMZ2</t>
+  </si>
+  <si>
+    <t>DMZ3</t>
+  </si>
+  <si>
+    <t>DMZ4</t>
+  </si>
+  <si>
+    <t>DMZ5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,19 +435,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -451,9 +467,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -475,9 +491,9 @@
         <v>8778</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <f>1905*7</f>
@@ -499,9 +515,9 @@
         <v>10073</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <f>2200*7</f>
@@ -523,9 +539,9 @@
         <v>14350</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <f>2350*7</f>
@@ -547,9 +563,9 @@
         <v>29750</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <f>1950*7</f>

--- a/Optimisation/dataset/freight_costs.xlsx
+++ b/Optimisation/dataset/freight_costs.xlsx
@@ -8,35 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_15EE4FF78E3075793832E58993F13C282D13FC69" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2DB35180-A9C0-4FAF-A352-CB8BEE7C221A}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_15EE4FF78E3075793832E58993F13C282D13FC69" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5DF0A395-8992-4ACE-ADE7-53EF5C8E2DC7}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="11490" windowHeight="6430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37425" yWindow="5775" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>Freight Costs ($/Container)</t>
   </si>
   <si>
@@ -53,13 +49,28 @@
   </si>
   <si>
     <t>DMZ5</t>
+  </si>
+  <si>
+    <t>Ampang Intake</t>
+  </si>
+  <si>
+    <t>Batang Kali</t>
+  </si>
+  <si>
+    <t>Bernam River Head</t>
+  </si>
+  <si>
+    <t>Wangsa Maju</t>
+  </si>
+  <si>
+    <t>Sungai Tengi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +90,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,14 +142,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,37 +456,41 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -492,8 +513,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <f>1905*7</f>
@@ -516,8 +537,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <f>2200*7</f>
@@ -540,8 +561,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <f>2350*7</f>
@@ -564,8 +585,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <f>1950*7</f>
